--- a/results.xlsx
+++ b/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>Iteration</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>Log-Likelihood (Model B)</t>
+  </si>
+  <si>
+    <t>Test Accuracy (Model C)</t>
+  </si>
+  <si>
+    <t>Log-Likelihood (Model C)</t>
+  </si>
+  <si>
+    <t>50% 50% split</t>
+  </si>
+  <si>
+    <t>1% labeled 99%unlabeled</t>
   </si>
 </sst>
 </file>
@@ -86,8 +98,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -98,18 +114,926 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Accuracy (Model A)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.900206733478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.895690538616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.895355594891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.894987378611</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2130453976"/>
+        <c:axId val="-2130456984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2130453976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2130456984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2130456984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2130453976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Accuracy (Model B)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.912728305185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.887623053001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.876266020735</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.874318467156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2130524568"/>
+        <c:axId val="-2130527528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2130524568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2130527528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2130527528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2130524568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Accuracy (Model C)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.682196077388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.681654843819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.677739773126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.675705710901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2130552904"/>
+        <c:axId val="-2130555864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2130552904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2130555864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2130555864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2130552904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Accuracy (Model A)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.754789250823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.754787036781</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.754618769546</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.754499211247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2130598616"/>
+        <c:axId val="-2130601576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2130598616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2130601576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2130601576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2130598616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Accuracy (Model B)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.713570420391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.709122408878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.656908643069</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.601069382559</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2130627944"/>
+        <c:axId val="-2130630904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2130627944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2130630904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2130630904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2130627944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Accuracy (Model C)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$14:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.291666897296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.280260150001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.275229845294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.269640494839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2130656280"/>
+        <c:axId val="-2130659240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2130656280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2130659240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2130659240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2130656280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,19 +1358,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +1385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -474,7 +1399,7 @@
         <v>-319931653.361</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -487,8 +1412,11 @@
       <c r="E3">
         <v>-319524639.90399998</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -502,7 +1430,7 @@
         <v>-319520418.02600002</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -516,7 +1444,7 @@
         <v>-319520370.22299999</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -530,7 +1458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>1</v>
       </c>
@@ -544,7 +1472,7 @@
         <v>-569801796.46800005</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>2</v>
       </c>
@@ -558,7 +1486,7 @@
         <v>-569511749.54700005</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>3</v>
       </c>
@@ -572,7 +1500,7 @@
         <v>-569504808.16700006</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>4</v>
       </c>
@@ -584,11 +1512,82 @@
       </c>
       <c r="E11">
         <v>-569502269.50999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.68219607738800003</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>-903049276.65400004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0.68165484381899999</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>-904959264.55599999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.67773977312599998</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>-903992586.96000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>0.67570571090099996</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>-903486198.23300004</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -599,13 +1598,237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.75478925082299997</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>-12349648.236300001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.75478703678100001</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>-12073983.0009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.75461876954600005</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>-11975392.0625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.75449921124700003</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>-11932227.8478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.71357042039100005</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>-22272818.6679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0.70912240887800004</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>-22124790.777399998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0.65690864306899999</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>-22098891.6184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>0.601069382559</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>-22083398.914999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.29166689729599998</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>-31071325.454300001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0.28026015000100002</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>-31002824.6395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.27522984529400002</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>-30940787.2599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>0.26964049483899999</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>-30902468.5594</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
